--- a/biology/Histoire de la zoologie et de la botanique/Richard_Fitter/Richard_Fitter.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_Fitter/Richard_Fitter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Sidney Richmond Fitter,  né le 1er mars 1913 à Streatham (quartier de Londres) et mort le 3 septembre 2005 à Cambridge en Angleterre, est un naturaliste, botaniste et ornithologue britannique.
 Spécialiste des fleurs sauvages, il a écrit plusieurs guides à l'intention des naturalistes amateurs. 
@@ -512,7 +524,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Richard Fitter (préf. The Duke of Edinburgh, ill. John Leigh-Pemberton (en), introduction de Peter Scott), Vanishing Wild Animals of the World, Londres, Midland Bank Ltd - Kaye &amp; Ward Ltd, 1968, 144 p.
 Richard Fitter (trad. de l'anglais par Jeanne Germain, préf. Jean Dorst, ill. John Leigh-Pemberton, introduction de Peter Scott), Les Animaux Sauvages en voie de disparition dans le monde [« Vanishing Wild Animals of the World »], Paris, Arthaud, 1970, 144 p.</t>
